--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2254835_cognizant_com/Documents/Desktop/Senthamizh/Kore.AI/SDKApp - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Final codebase for Verbiage builder\cai-sdk-authentication-app-main\cai-sdk-authentication-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{C4FA49B5-681D-4E59-BD49-3DDB1261DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5953BA3A-DB4E-4CB6-B154-44FF6A88ECCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A870F2-CD08-4D35-A88E-47C45FC895EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>ESI_PHA_ORD_INFO_CNFN_MSG</t>
   </si>
   <si>
-    <t>Thanks for your confirmation. Here is your order status, Status : Inprogess. Is there anything else I can assist with you?</t>
+    <t>Thanks for your confirmation. Here is your order status, Status: Inprogess. Is there anything else I can assist with you?</t>
   </si>
 </sst>
 </file>
@@ -213,10 +213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +535,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Final codebase for Verbiage builder\cai-sdk-authentication-app-main\cai-sdk-authentication-app-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A870F2-CD08-4D35-A88E-47C45FC895EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF0F3790-44ED-4D2F-9C4C-4A8C88FFD610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
